--- a/biology/Médecine/Hôpital_Gemelli/Hôpital_Gemelli.xlsx
+++ b/biology/Médecine/Hôpital_Gemelli/Hôpital_Gemelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Gemelli</t>
+          <t>Hôpital_Gemelli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier universitaire Gemelli (Policlinico Universitario Gemelli en italien), nommé en l'honneur de Agostino Gemelli, est un des plus importants hôpitaux universitaires d'Italie, situé à Rome, dans le quartier Primavalle, à proximité du Vatican. 
 Il est affilié à l'École de Médecine et Chirurgie de l'Université Catholique du Sacré-Cœur.
-C'est l'hôpital où a été soigné le pape Jean-Paul II[1].
+C'est l'hôpital où a été soigné le pape Jean-Paul II.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Gemelli</t>
+          <t>Hôpital_Gemelli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Patients célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le pape Jean-Paul II, qui y a été soigné plusieurs fois.
 De même, le pape François y reçoit ses traitements ainsi qu'en 2021 une opération.
